--- a/biology/Botanique/Adansonia_suarezensis/Adansonia_suarezensis.xlsx
+++ b/biology/Botanique/Adansonia_suarezensis/Adansonia_suarezensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Baobab de Suarez (Adansonia suarezensis) est une espèce d'arbre de la famille des Bombacaceae selon la classification classique, ou de celle des Malvaceae selon la classification phylogénétique. Elle constitue l'une des huit espèces de baobabs.
 Cette espèce, originaire de Madagascar, est en voie de disparition.
